--- a/01_C#/学习笔记_Net.xlsx
+++ b/01_C#/学习笔记_Net.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
-    <sheet name="安装" sheetId="2" r:id="rId2"/>
-    <sheet name="知识点" sheetId="3" r:id="rId3"/>
-    <sheet name="语法" sheetId="5" r:id="rId4"/>
-    <sheet name="示例" sheetId="6" r:id="rId5"/>
-    <sheet name="总结" sheetId="4" r:id="rId6"/>
-    <sheet name="参考" sheetId="7" r:id="rId7"/>
+    <sheet name="FW" sheetId="9" r:id="rId2"/>
+    <sheet name="Core" sheetId="8" r:id="rId3"/>
+    <sheet name="安装" sheetId="2" r:id="rId4"/>
+    <sheet name="知识点" sheetId="3" r:id="rId5"/>
+    <sheet name="语法" sheetId="5" r:id="rId6"/>
+    <sheet name="示例" sheetId="6" r:id="rId7"/>
+    <sheet name="总结" sheetId="4" r:id="rId8"/>
+    <sheet name="参考" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="237">
   <si>
     <r>
       <rPr>
@@ -688,19 +690,7 @@
     <t>目标 Framework</t>
   </si>
   <si>
-    <t>最新</t>
-  </si>
-  <si>
-    <t>稳定版本</t>
-  </si>
-  <si>
     <t>目标框架名字对象 (TFM)</t>
-  </si>
-  <si>
-    <t>已实现</t>
-  </si>
-  <si>
-    <t>.NET Standard 版本</t>
   </si>
   <si>
     <t>netstandard2.0</t>
@@ -1171,12 +1161,941 @@
     <t>同时只运行于 .Net Core 平台的库也应使用此模型。 使用此框架后，所有应用和库将只能够在 .Net Core 上运行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NET Framework 中常见的字符串比较方法</t>
+  </si>
+  <si>
+    <t>以下各节介绍最常用于执行字符串比较的方法。</t>
+  </si>
+  <si>
+    <t>String.Compare</t>
+  </si>
+  <si>
+    <t>默认解释：StringComparison.CurrentCulture。</t>
+  </si>
+  <si>
+    <t>作为字符串解释最核心的操作，应根据当前区域性检查这些方法调用的所有实例来确定是否应该从区域性（符号）解释或分离字符串。 通常情况下，采用后者，并且应改用 StringComparison.Ordinal 比较。</t>
+  </si>
+  <si>
+    <t>CultureInfo.CompareInfo 属性返回的 System.Globalization.CompareInfo 类也包括利用 CompareOptions 标记枚举的方式提供大量匹配选项（序号、忽略空白、忽略假名类型等）的 Compare 方法。</t>
+  </si>
+  <si>
+    <t>String.CompareTo</t>
+  </si>
+  <si>
+    <t>此方法当前不提供指定 StringComparison 类型的重载。 通常可以将此方法转换为建议的 String.Compare(String, String, StringComparison) 形式。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   StringComparer comparer; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <t>String.Equals</t>
+  </si>
+  <si>
+    <t>默认解释：StringComparison.Ordinal。</t>
+  </si>
+  <si>
+    <t>String.ToUpper 和 String.ToLower</t>
+  </si>
+  <si>
+    <t>应谨慎使用这些方法，因为将字符串强制为大写或小写经常用作在不考虑大小写的情况下比较字符串的较小规范化。 如果是这样，请考虑使用不区分大小写的比较。</t>
+  </si>
+  <si>
+    <t>通过向方法传递表示区域性的 CultureInfo 对象，重载也已可用于转换该特性区域性中的大写和小写字母。</t>
+  </si>
+  <si>
+    <t>Char.ToUpper 和 Char.ToLower</t>
+  </si>
+  <si>
+    <t>这些方法的工作原理类似于上一节中所述的 String.ToUpper 和 String.ToLower 方法。</t>
+  </si>
+  <si>
+    <t>String.StartsWith 和 String.EndsWith</t>
+  </si>
+  <si>
+    <t>默认情况下，这两种方法执行区分区域性的比较。</t>
+  </si>
+  <si>
+    <t>String.IndexOf 和 String.LastIndexOf</t>
+  </si>
+  <si>
+    <t>这些方法的默认重载如何执行比较方面缺乏一致性。 包含 Char 参数的所有 String.IndexOf 和 String.LastIndexOf 方法都执行序号比较，但是包含 String 参数的默认 String.IndexOf 和 String.LastIndexOf 方法都执行区分区域性的比较。</t>
+  </si>
+  <si>
+    <t>如果调用 String.IndexOf(String) 或 String.LastIndexOf(String) 方法并向其传递一个字符串以在当前实例中查找，那么我们建议调用显式指定 StringComparison 类型的重载。 包括 Char 参数的重载不允许指定 StringComparison 类型。</t>
+  </si>
+  <si>
+    <t>间接执行字符串比较的方法</t>
+  </si>
+  <si>
+    <t>将字符串比较作为核心操作的一些非字符串方法使用 StringComparer 类型。 StringComparer 类型包含六个返回 StringComparer 实例的静态属性，这些实例的 StringComparer.Compare 方法可执行以下类型的字符串比较：</t>
+  </si>
+  <si>
+    <t>使用当前区域性的区分区域性的字符串比较。 此 StringComparer 对象由 StringComparer.CurrentCulture 属性返回。</t>
+  </si>
+  <si>
+    <t>使用当前区域性的不区分区域性的比较。 此 StringComparer 对象由 StringComparer.CurrentCultureIgnoreCase 属性返回。</t>
+  </si>
+  <si>
+    <t>使用固定区域性的单词比较规则的不区分区域性的比较。 此 StringComparer 对象由 StringComparer.InvariantCulture 属性返回。</t>
+  </si>
+  <si>
+    <t>使用固定区域性的单词比较规则的不区分大小写和不区分区域性的比较。 此 StringComparer 对象由 StringComparer.InvariantCultureIgnoreCase 属性返回。</t>
+  </si>
+  <si>
+    <t>序号比较。 此 StringComparer 对象由 StringComparer.Ordinal 属性返回。</t>
+  </si>
+  <si>
+    <t>不区分大小写的序号比较。 此 StringComparer 对象由 StringComparer.OrdinalIgnoreCase 属性返回。</t>
+  </si>
+  <si>
+    <t>Net框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">实现 IComparable 和 IComparable&lt;T&gt; 接口的类型实现此方法。 由于它不提供 StringComparison 参数选项，因此实现类型经常使用户在其构造函数中指定 StringComparer。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面的示例定义 FileName 类，其类构造函数包括 StringComparer 参数。 然后此 StringComparer 对象将用于 FileName.CompareTo 方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>using</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> System;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> FileName : IComparable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> fname;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> FileName(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> name, StringComparer comparer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (String.IsNullOrEmpty(name))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>throw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ArgumentNullException(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.fname = name;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (comparer != </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.comparer = comparer;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>else</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.comparer = StringComparer.OrdinalIgnoreCase;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> fname; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> CompareTo(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> obj)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (obj == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (! (obj </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> FileName))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> comparer.Compare(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.fname, obj.ToString());</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> comparer.Compare(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.fname, ((FileName) obj).Name);</t>
+    </r>
+  </si>
+  <si>
+    <t>最新版本</t>
+  </si>
+  <si>
+    <t>下表定义了最常见的目标框架、如何引用这些框架，以及它们实现的 .NET Standard 版本。 这些目标框架版本是最新的稳定版本。 预发行版不会显示。 目标框架名字对象 (TFM) 是一个标准化令牌格式，用于指定 .NET 应用或库的目标框架。</t>
+  </si>
+  <si>
+    <t>目标框架</t>
+  </si>
+  <si>
+    <t>.NET 6</t>
+  </si>
+  <si>
+    <t>net6.0</t>
+  </si>
+  <si>
+    <t>空值</t>
+  </si>
+  <si>
+    <t>.NET 5</t>
+  </si>
+  <si>
+    <t>net5.0</t>
+  </si>
+  <si>
+    <t>netstandard2.1</t>
+  </si>
+  <si>
+    <t>netcoreapp3.1</t>
+  </si>
+  <si>
+    <t>net48</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标框架名字对象</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (TFM)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新稳定版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.NET Standard </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系图：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String 类可通过调用静态或实例 Equals 方法重载或使用静态相等运算符，测试是否相等。 默认情况下，重载和运算符使用序号比较。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是，我们仍然建议调用显式指定 StringComparison 类型的重载，即使想要执行序号比较；这将更轻松地搜索特定字符串解释的代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以使用 String.ToUpperInvariant 和 String.ToLowerInvariant 方法。 ToUpperInvariant 是规范化大小写的标准方式。 使用 StringComparison.OrdinalIgnoreCase 进行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较在行为上是两个调用的组合：对两个字符串参数调用 ToUpperInvariant，并使用 StringComparison.Ordinal 执行比较。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新稳定版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现.NET Standard 版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,6 +2238,100 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1374,7 +2387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1414,9 +2427,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1433,6 +2443,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1485,6 +2544,71 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="3171825"/>
+          <a:ext cx="12782550" cy="8829675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1500,7 +2624,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8D197A63-B20A-42B5-9286-1AA7940B0405}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D197A63-B20A-42B5-9286-1AA7940B0405}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +2685,7 @@
         <xdr:cNvPr id="2054" name="AutoShape 6" descr="提示添加缺少的资产">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D3DB56D-96CF-41F7-9A01-BB72F02942F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3DB56D-96CF-41F7-9A01-BB72F02942F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +2733,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57B6A45F-D51F-457D-86C3-BB77DDA3DCD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B6A45F-D51F-457D-86C3-BB77DDA3DCD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +3034,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1918,10 +3042,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="A1" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="38"/>
+    </row>
+    <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39">
+        <v>6</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39">
+        <v>5</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39">
+        <v>2.1</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39">
+        <v>3.1</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40">
+        <v>2.1</v>
+      </c>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39">
+        <v>4.8</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40">
+        <v>2</v>
+      </c>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I82"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+    </row>
+    <row r="20" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="35"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="35"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B35" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="35"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B40" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="42" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B42" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B43" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B46" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+    </row>
+    <row r="47" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B47" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="27"/>
+    </row>
+    <row r="49" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B49" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="27"/>
+    </row>
+    <row r="54" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B61" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="27"/>
+    </row>
+    <row r="65" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B65" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B69" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B74" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K166"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1936,735 +3864,721 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>70</v>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>57</v>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="10" t="s">
-        <v>61</v>
+      <c r="B27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="18" t="s">
-        <v>64</v>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B46" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B52" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>80</v>
+      <c r="B56" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="10" t="s">
-        <v>84</v>
+      <c r="B63" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="10"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="26" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="26" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="10" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+    <row r="72" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="25" t="s">
+    <row r="75" spans="2:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="B75" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C75" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="E75" s="44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="19">
+        <v>2</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E82" s="19" t="s">
+    </row>
+    <row r="77" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="25"/>
-      <c r="C83" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="19" t="s">
+      <c r="E77" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B84" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C84" s="20">
+      <c r="D78" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="19">
         <v>2</v>
       </c>
-      <c r="D84" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="20" t="s">
+    </row>
+    <row r="81" spans="2:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="B81" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B85" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="D85" s="20" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>105</v>
       </c>
-      <c r="E85" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="20" t="s">
+    </row>
+    <row r="84" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="20" t="s">
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>107</v>
       </c>
-      <c r="E86" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
+    </row>
+    <row r="87" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="10"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B95" s="9" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="11" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="10" t="s">
         <v>114</v>
       </c>
     </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="10"/>
+      <c r="B99" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="B100" s="10"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="B101" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B102" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+      <c r="B103" s="20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="20" t="s">
         <v>120</v>
       </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+    </row>
+    <row r="105" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B105" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="10"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="22"/>
+      <c r="B108" s="11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="21" t="s">
+      <c r="B110" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="21" t="s">
+    </row>
+    <row r="112" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B112" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-    </row>
-    <row r="113" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B113" s="21" t="s">
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B113" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="21" t="s">
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B114" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="22"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="11" t="s">
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+    </row>
+    <row r="115" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B115" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+    </row>
+    <row r="116" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B116" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+    </row>
+    <row r="117" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B117" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+    </row>
+    <row r="118" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B118" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="119" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B119" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+    </row>
+    <row r="122" spans="2:7" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B122" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B120" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-    </row>
-    <row r="121" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B121" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-    </row>
-    <row r="122" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B122" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-    </row>
-    <row r="123" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B123" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-    </row>
-    <row r="124" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B124" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-    </row>
-    <row r="125" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B125" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-    </row>
-    <row r="126" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B126" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-    </row>
-    <row r="127" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B127" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-    </row>
-    <row r="130" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B130" s="9" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="10"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="10" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
+      <c r="B135" s="10"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="10"/>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="10"/>
+    </row>
+    <row r="140" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
+      <c r="B142" s="11" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="10"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="11" t="s">
-        <v>144</v>
+    <row r="144" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B144" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="10"/>
-    </row>
-    <row r="148" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B148" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="10" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="149" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="B149" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B152" s="9" t="s">
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
         <v>151</v>
       </c>
     </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B157" s="9" t="s">
-        <v>153</v>
+      <c r="B154" s="10"/>
+    </row>
+    <row r="155" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B155" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B156" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B157" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B158" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="23" t="s">
+      <c r="B160" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
-        <v>157</v>
+      <c r="B161" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="10"/>
-    </row>
-    <row r="163" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B163" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="B164" s="24" t="s">
+      <c r="B162" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B164" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B165" s="18" t="s">
-        <v>55</v>
+    <row r="165" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B172" s="18" t="s">
+      <c r="B166" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B173" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
-        <v>167</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D82:D83"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2811,7 +4725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -3225,12 +5139,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3240,7 +5154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -3477,7 +5391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3492,7 +5406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
